--- a/PropProAssistant/Test/Modelo_BNC.xlsx
+++ b/PropProAssistant/Test/Modelo_BNC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54cd02815d7cac6c/Documentos/Projetos/proppro-assistant/PropProAssistant/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{364F1EDF-D5A2-4785-B6AC-1DA60EAD916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E076919E-F349-42F0-886F-A9B5282E7F8D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{364F1EDF-D5A2-4785-B6AC-1DA60EAD916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB2B077-A042-4174-B191-72F899A93678}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,6 +2695,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/PropProAssistant/Test/Modelo_BNC.xlsx
+++ b/PropProAssistant/Test/Modelo_BNC.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54cd02815d7cac6c/Documentos/Projetos/proppro-assistant/PropProAssistant/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNETProjects\proppro-assistant\PropProAssistant\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{364F1EDF-D5A2-4785-B6AC-1DA60EAD916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB2B077-A042-4174-B191-72F899A93678}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E9DE0-D6C5-4EC0-99B3-811FC050F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="TabelaModelo">Modelo!$A$1:$E$199</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modelo!$A$1:$E$199</definedName>
-    <definedName name="TabelaModelo">Modelo!$A$1:$E$199</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Lote</t>
   </si>
@@ -40,6 +40,9 @@
   <si>
     <t>Modelo</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -48,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,51 +486,51 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="0" applyFill="0" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="0" fillId="8" applyFill="1" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="2" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="3" applyFont="1" fillId="0" applyFill="0" borderId="1" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="4" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="0" applyFill="0" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -886,7 +889,7 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C2" sqref="C2:E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,1801 +897,3377 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>27</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>28</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>29</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>30</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>31</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>32</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>33</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>34</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>35</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>36</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>37</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>38</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>39</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>40</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>41</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>42</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>43</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>47</v>
       </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>48</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>49</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>50</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>55</v>
       </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>56</v>
       </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>57</v>
       </c>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>58</v>
       </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>59</v>
       </c>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>60</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>62</v>
       </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>65</v>
       </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>66</v>
       </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>67</v>
       </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>68</v>
       </c>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>69</v>
       </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>70</v>
       </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>71</v>
       </c>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>72</v>
       </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>73</v>
       </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>74</v>
       </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>75</v>
       </c>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>76</v>
       </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>77</v>
       </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>78</v>
       </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>79</v>
       </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>80</v>
       </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>81</v>
       </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>82</v>
       </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>83</v>
       </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>84</v>
       </c>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>85</v>
       </c>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>86</v>
       </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>87</v>
       </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>88</v>
       </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>89</v>
       </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>90</v>
       </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>91</v>
       </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>92</v>
       </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>93</v>
       </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>95</v>
       </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>96</v>
       </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>97</v>
       </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>98</v>
       </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>99</v>
       </c>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>100</v>
       </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>101</v>
       </c>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>102</v>
       </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>103</v>
       </c>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>104</v>
       </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>105</v>
       </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>106</v>
       </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>107</v>
       </c>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>108</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>109</v>
       </c>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>110</v>
       </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>111</v>
       </c>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>112</v>
       </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>113</v>
       </c>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>114</v>
       </c>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>115</v>
       </c>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>116</v>
       </c>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>117</v>
       </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>118</v>
       </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>119</v>
       </c>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>120</v>
       </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>121</v>
       </c>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>122</v>
       </c>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>123</v>
       </c>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>124</v>
       </c>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>125</v>
       </c>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>126</v>
       </c>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>127</v>
       </c>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>128</v>
       </c>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>129</v>
       </c>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>130</v>
       </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>131</v>
       </c>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>132</v>
       </c>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>133</v>
       </c>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>134</v>
       </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>135</v>
       </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>136</v>
       </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>137</v>
       </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>138</v>
       </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>139</v>
       </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>140</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>141</v>
       </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>142</v>
       </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>143</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>144</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>145</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>146</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>147</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>148</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>149</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>150</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>151</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>152</v>
       </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>153</v>
       </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>154</v>
       </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>155</v>
       </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>156</v>
       </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="C157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>157</v>
       </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>158</v>
       </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>159</v>
       </c>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>160</v>
       </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>161</v>
       </c>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>162</v>
       </c>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="C163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>163</v>
       </c>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>164</v>
       </c>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="C165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>165</v>
       </c>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>166</v>
       </c>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="C167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>167</v>
       </c>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>168</v>
       </c>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>169</v>
       </c>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="C170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>170</v>
       </c>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="C171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>171</v>
       </c>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="C172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>172</v>
       </c>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="C173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>173</v>
       </c>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="C174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>174</v>
       </c>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="C175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0">
         <v>175</v>
       </c>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="C176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0">
         <v>176</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0">
         <v>177</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="C178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0">
         <v>178</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="C179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0">
         <v>179</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="C180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0">
         <v>180</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="C181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0">
         <v>181</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0">
         <v>182</v>
       </c>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="C183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0">
         <v>183</v>
       </c>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="C184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0">
         <v>184</v>
       </c>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="C185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0">
         <v>185</v>
       </c>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="C186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0">
         <v>186</v>
       </c>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="C187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0">
         <v>187</v>
       </c>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="C188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0">
         <v>188</v>
       </c>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0">
         <v>189</v>
       </c>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="C190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0">
         <v>190</v>
       </c>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="C191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0">
         <v>191</v>
       </c>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="C192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0">
         <v>192</v>
       </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="C193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0">
         <v>193</v>
       </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="C194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0">
         <v>194</v>
       </c>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="C195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0">
         <v>195</v>
       </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="C196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0">
         <v>196</v>
       </c>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="C197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0">
         <v>197</v>
       </c>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0">
         <v>198</v>
       </c>
       <c r="C199" s="1"/>
@@ -2696,5 +4275,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>